--- a/program_directory/interpreterAccounting/顺丰控股：2018年年度报告.xlsx
+++ b/program_directory/interpreterAccounting/顺丰控股：2018年年度报告.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12600" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="27720" windowHeight="13665" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="主要会计数据" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="877">
   <si>
     <t>2018年</t>
   </si>
@@ -1205,10 +1205,10 @@
     <t>四(46)</t>
   </si>
   <si>
-    <t>(984,314,148.53)</t>
-  </si>
-  <si>
-    <t>(648,931,086.39)</t>
+    <t>984,314,148.53</t>
+  </si>
+  <si>
+    <t>648,931,086.39</t>
   </si>
   <si>
     <t>财务费用</t>
@@ -1220,10 +1220,10 @@
     <t>其中：利息费用</t>
   </si>
   <si>
-    <t>(644,167,308.71)</t>
-  </si>
-  <si>
-    <t>(561,346,225.08)</t>
+    <t>644,167,308.71</t>
+  </si>
+  <si>
+    <t>561,346,225.08</t>
   </si>
   <si>
     <t>(4,576.72)</t>
@@ -1238,10 +1238,10 @@
     <t>四(49)</t>
   </si>
   <si>
-    <t>(103,540,525.99)</t>
-  </si>
-  <si>
-    <t>(71,531,964.03)</t>
+    <t>103,540,525.99</t>
+  </si>
+  <si>
+    <t>71,531,964.03</t>
   </si>
   <si>
     <t>加：其他收益</t>
@@ -1310,10 +1310,10 @@
     <t>四(55)</t>
   </si>
   <si>
-    <t>(1,403,280,110.74)</t>
-  </si>
-  <si>
-    <t>(1,758,154,333.91)</t>
+    <t>1,403,280,110.74</t>
+  </si>
+  <si>
+    <t>1,758,154,333.91</t>
   </si>
   <si>
     <t>四、净利润</t>
@@ -1541,25 +1541,25 @@
     <t>购买商品、接受劳务支付的现金</t>
   </si>
   <si>
-    <t>(58,276,487,912.25)</t>
-  </si>
-  <si>
-    <t>(42,563,819,458.55)</t>
+    <t>58,276,487,912.25</t>
+  </si>
+  <si>
+    <t>42,563,819,458.55</t>
   </si>
   <si>
     <t>存放中央银行款项净增加额</t>
   </si>
   <si>
-    <t>(1,054,229,776.45)</t>
+    <t>1,054,229,776.45</t>
   </si>
   <si>
     <t>支付给职工以及为职工支付的现金</t>
   </si>
   <si>
-    <t>(20,374,401,450.08)</t>
-  </si>
-  <si>
-    <t>(16,115,050,928.83)</t>
+    <t>20,374,401,450.08</t>
+  </si>
+  <si>
+    <t>16,115,050,928.83</t>
   </si>
   <si>
     <t>(2,960,000.00)</t>
@@ -1571,10 +1571,10 @@
     <t>支付的各项税费</t>
   </si>
   <si>
-    <t>(3,061,313,112.79)</t>
-  </si>
-  <si>
-    <t>(2,628,538,899.69)</t>
+    <t>3,061,313,112.79</t>
+  </si>
+  <si>
+    <t>2,628,538,899.69</t>
   </si>
   <si>
     <t>(52,342,163.01)</t>
@@ -1589,10 +1589,10 @@
     <t>四(59)(b)</t>
   </si>
   <si>
-    <t>(65,503,769,245.24)</t>
-  </si>
-  <si>
-    <t>(54,576,531,619.13)</t>
+    <t>65,503,769,245.24</t>
+  </si>
+  <si>
+    <t>54,576,531,619.13</t>
   </si>
   <si>
     <t>(9,032,441.98)</t>
@@ -1604,10 +1604,10 @@
     <t>经营活动现金流出小计</t>
   </si>
   <si>
-    <t>(147,215,971,720.36)</t>
-  </si>
-  <si>
-    <t>(116,938,170,682.65)</t>
+    <t>147,215,971,720.36</t>
+  </si>
+  <si>
+    <t>116,938,170,682.65</t>
   </si>
   <si>
     <t>(64,334,604.99)</t>
@@ -1712,10 +1712,10 @@
     <t>购建固定资产和其他长期资产支付的现金</t>
   </si>
   <si>
-    <t>(11,638,211,200.07)</t>
-  </si>
-  <si>
-    <t>(5,658,751,504.42)</t>
+    <t>11,638,211,200.07</t>
+  </si>
+  <si>
+    <t>5,658,751,504.42</t>
   </si>
   <si>
     <t>(100,000.00)</t>
@@ -1724,22 +1724,22 @@
     <t>投资支付的现金</t>
   </si>
   <si>
-    <t>(3,021,686,093.97)</t>
-  </si>
-  <si>
-    <t>(3,182,950,366.21)</t>
+    <t>3,021,686,093.97</t>
+  </si>
+  <si>
+    <t>3,182,950,366.21</t>
   </si>
   <si>
     <t>取得子公司支付的现金净额</t>
   </si>
   <si>
-    <t>(5,737,633.77)</t>
+    <t>5,737,633.77</t>
   </si>
   <si>
     <t>处置子公司支付的现金净额</t>
   </si>
   <si>
-    <t>(6,967,591.87)</t>
+    <t>6,967,591.87</t>
   </si>
   <si>
     <t>支付其他与投资活动有关的现金</t>
@@ -1748,10 +1748,10 @@
     <t>四(59)(d)</t>
   </si>
   <si>
-    <t>(41,569,033,887.78)</t>
-  </si>
-  <si>
-    <t>(43,464,370,278.74)</t>
+    <t>41,569,033,887.78</t>
+  </si>
+  <si>
+    <t>43,464,370,278.74</t>
   </si>
   <si>
     <t>(9,422,083,188.99)</t>
@@ -1763,10 +1763,10 @@
     <t>投资活动现金流出小计</t>
   </si>
   <si>
-    <t>(56,235,898,773.69)</t>
-  </si>
-  <si>
-    <t>(52,311,809,783.14)</t>
+    <t>56,235,898,773.69</t>
+  </si>
+  <si>
+    <t>52,311,809,783.14</t>
   </si>
   <si>
     <t>(9,422,183,188.99)</t>
@@ -1850,10 +1850,10 @@
     <t>偿还债务支付的现金</t>
   </si>
   <si>
-    <t>(12,976,249,182.96)</t>
-  </si>
-  <si>
-    <t>(7,367,953,084.85)</t>
+    <t>12,976,249,182.96</t>
+  </si>
+  <si>
+    <t>7,367,953,084.85</t>
   </si>
   <si>
     <t>(20,000,000.00)</t>
@@ -1862,10 +1862,10 @@
     <t>分配股利、利润或偿付利息支付的现金</t>
   </si>
   <si>
-    <t>(1,524,968,120.09)</t>
-  </si>
-  <si>
-    <t>(847,209,773.45)</t>
+    <t>1,524,968,120.09</t>
+  </si>
+  <si>
+    <t>847,209,773.45</t>
   </si>
   <si>
     <t>(970,985,880.70)</t>
@@ -1880,10 +1880,10 @@
     <t>四(59)(f)</t>
   </si>
   <si>
-    <t>(3,214,943,802.05)</t>
-  </si>
-  <si>
-    <t>(5,073,907,921.10)</t>
+    <t>3,214,943,802.05</t>
+  </si>
+  <si>
+    <t>5,073,907,921.10</t>
   </si>
   <si>
     <t>(1,497,591.96)</t>
@@ -1895,10 +1895,10 @@
     <t>筹资活动现金流出小计</t>
   </si>
   <si>
-    <t>(17,716,161,105.10)</t>
-  </si>
-  <si>
-    <t>(13,289,070,779.40)</t>
+    <t>17,716,161,105.10</t>
+  </si>
+  <si>
+    <t>13,289,070,779.40</t>
   </si>
   <si>
     <t>(972,483,472.66)</t>
@@ -2484,12 +2484,6 @@
   </si>
   <si>
     <t>加：资产减值损失</t>
-  </si>
-  <si>
-    <t>103,540,525.99</t>
-  </si>
-  <si>
-    <t>71,531,964.03</t>
   </si>
   <si>
     <t>固定资产折旧</t>
@@ -2668,10 +2662,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2709,15 +2703,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2731,9 +2719,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2747,32 +2765,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2794,23 +2795,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2825,8 +2812,15 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2853,13 +2847,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2871,7 +2865,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2883,19 +2895,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2907,19 +2967,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2937,79 +2985,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3021,7 +3009,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3053,26 +3047,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3094,30 +3103,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3128,155 +3113,164 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -4005,55 +3999,55 @@
         <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>867</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="2" spans="6:7">
       <c r="F2" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>876</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>878</v>
       </c>
     </row>
   </sheetData>
@@ -4386,7 +4380,7 @@
   <sheetPr/>
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A41" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -5413,7 +5407,7 @@
   <dimension ref="A1:AE67"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5"/>
@@ -5499,10 +5493,10 @@
         <v>383</v>
       </c>
       <c r="C4" s="6">
-        <v>-74642182863.72</v>
+        <v>74642182863.72</v>
       </c>
       <c r="D4" s="6">
-        <v>-56905095641.71</v>
+        <v>56905095641.71</v>
       </c>
       <c r="E4" t="s">
         <v>114</v>
@@ -5523,10 +5517,10 @@
         <v>386</v>
       </c>
       <c r="C5" s="6">
-        <v>-222303431.6</v>
+        <v>222303431.6</v>
       </c>
       <c r="D5" s="6">
-        <v>-200862719.74</v>
+        <v>200862719.74</v>
       </c>
       <c r="E5" s="6">
         <v>-34488.41</v>
@@ -5551,10 +5545,10 @@
         <v>388</v>
       </c>
       <c r="C6" s="6">
-        <v>-1825817910.47</v>
+        <v>1825817910.47</v>
       </c>
       <c r="D6" s="6">
-        <v>-1387089130.69</v>
+        <v>1387089130.69</v>
       </c>
       <c r="E6" t="s">
         <v>114</v>
@@ -5582,10 +5576,10 @@
         <v>390</v>
       </c>
       <c r="C7" s="6">
-        <v>-8414153879.9</v>
+        <v>8414153879.9</v>
       </c>
       <c r="D7" s="6">
-        <v>-6750951976.31</v>
+        <v>6750951976.31</v>
       </c>
       <c r="E7" s="6">
         <v>-9168832.03</v>
@@ -5636,10 +5630,10 @@
         <v>396</v>
       </c>
       <c r="C9" s="6">
-        <v>-286745488.76</v>
+        <v>286745488.76</v>
       </c>
       <c r="D9" s="6">
-        <v>-259041319.62</v>
+        <v>259041319.62</v>
       </c>
       <c r="E9" s="6">
         <v>33529866.32</v>
@@ -5894,10 +5888,10 @@
         <v>424</v>
       </c>
       <c r="C21" s="6">
-        <v>-98620082.51</v>
+        <v>98620082.51</v>
       </c>
       <c r="D21" s="6">
-        <v>-75928870.42</v>
+        <v>75928870.42</v>
       </c>
       <c r="E21" t="s">
         <v>114</v>
@@ -6523,8 +6517,8 @@
   <sheetPr/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -8817,76 +8811,76 @@
         <v>819</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>820</v>
+        <v>404</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>821</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>822</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>825</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>828</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>831</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>834</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>837</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8894,10 +8888,10 @@
         <v>395</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8905,87 +8899,87 @@
         <v>408</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>670</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>846</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>849</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>852</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>855</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>858</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>861</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -8996,7 +8990,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
   </sheetData>
